--- a/議事録/データベース.xlsx
+++ b/議事録/データベース.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-maeda\Documents\zyousupe2\議事録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-ara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>公欠</t>
     <rPh sb="0" eb="2">
@@ -382,11 +382,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J45"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -690,12 +690,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
@@ -758,7 +758,7 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -843,7 +843,7 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="C29" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -922,7 +922,7 @@
       <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
       <c r="C40" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
       <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -985,40 +985,45 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>40</v>
       </c>
     </row>

--- a/議事録/データベース.xlsx
+++ b/議事録/データベース.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-ara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-maeda\Documents\zyousupe2\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>公欠</t>
     <rPh sb="0" eb="2">
@@ -247,20 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カラム名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kikann</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,6 +300,49 @@
   </si>
   <si>
     <t>school_location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teater_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sublect_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+timetable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public_holidays</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>absenceReasons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公欠理由</t>
+    <rPh sb="0" eb="2">
+      <t>コウケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -369,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -710,14 +742,12 @@
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="J4" s="2"/>
     </row>
@@ -729,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -740,14 +770,16 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -759,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -770,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -781,14 +813,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -800,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -811,7 +845,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -822,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -833,25 +867,27 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
@@ -863,14 +899,16 @@
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
@@ -882,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -893,7 +931,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -904,14 +942,16 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
@@ -923,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
@@ -934,14 +974,16 @@
         <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -953,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
@@ -964,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
@@ -972,10 +1014,10 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
@@ -986,15 +1028,19 @@
         <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1048,7 @@
         <v>34</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
@@ -1010,10 +1056,10 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
@@ -1021,10 +1067,10 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
